--- a/artfynd/A 53977-2023 artfynd.xlsx
+++ b/artfynd/A 53977-2023 artfynd.xlsx
@@ -811,7 +811,7 @@
         <v>129712151</v>
       </c>
       <c r="B3" t="n">
-        <v>57681</v>
+        <v>57685</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
